--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,19 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>prueba</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>otr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,19 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>prueba</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>otr</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,23 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>La mujer zorro y el doctor Shimamura</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Christine Wunnicke</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Impedimenta</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,23 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fin de viaje</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Virginia Woolf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lumen</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,23 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Noche y día</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Virginia Woolf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lumen</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,23 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>El cuarto de Jacob</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Virginia Woolf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Lumen</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,23 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Al faro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Virginia Woolf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Lumen</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,23 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Los años</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Virginia Woolf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Lumen</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,19 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>El plan infinito</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Isabel Allende</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,19 @@
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>La ciudad de las bestias</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Isabel Allende</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,6 +578,19 @@
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>El reino del dragón de oro</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Isabel Allende</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,19 @@
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>El peso del corazón</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rosa Montero</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,19 @@
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>La ridicula idea de no volverte a ver</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rosa Montero</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +617,19 @@
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>El jardín de los Finzi Contini</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Giorgio Bassani</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,19 @@
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mañana no le presentes</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Marta Orrantia</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,19 @@
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Primera persona</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Margarita García Robayo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,6 +656,19 @@
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Arráncame la vida</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Angeles Mastretta</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,19 @@
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>La mujer de mi vida</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Carla Guelfenbein</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +682,19 @@
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Memoria por correspondencia</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Emma Reyes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +695,19 @@
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nombres y animales</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rita Indiana</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,6 +708,19 @@
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Diez lunas para una espera</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Velia Vidal</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nini/Wishlist.xlsx
+++ b/data/nini/Wishlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +721,19 @@
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>La dependienta</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sayaka Murata</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
